--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H2">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I2">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J2">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N2">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q2">
-        <v>19.55435156722911</v>
+        <v>3.049418839194666</v>
       </c>
       <c r="R2">
-        <v>175.989164105062</v>
+        <v>27.444769552752</v>
       </c>
       <c r="S2">
-        <v>0.05003521010026179</v>
+        <v>0.01076413170790459</v>
       </c>
       <c r="T2">
-        <v>0.05003521010026177</v>
+        <v>0.01076413170790459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H3">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I3">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J3">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q3">
-        <v>105.5224840127251</v>
+        <v>7.132733053045333</v>
       </c>
       <c r="R3">
-        <v>949.702356114526</v>
+        <v>64.194597477408</v>
       </c>
       <c r="S3">
-        <v>0.2700084244535437</v>
+        <v>0.02517780668023318</v>
       </c>
       <c r="T3">
-        <v>0.2700084244535437</v>
+        <v>0.02517780668023318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H4">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I4">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J4">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q4">
-        <v>32.61273024195823</v>
+        <v>2.204439187754667</v>
       </c>
       <c r="R4">
-        <v>293.514572177624</v>
+        <v>19.839952689792</v>
       </c>
       <c r="S4">
-        <v>0.0834486791336118</v>
+        <v>0.007781441320577697</v>
       </c>
       <c r="T4">
-        <v>0.08344867913361179</v>
+        <v>0.007781441320577695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J5">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N5">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q5">
-        <v>16.05448627286533</v>
+        <v>37.03898769030066</v>
       </c>
       <c r="R5">
-        <v>144.490376455788</v>
+        <v>333.350889212706</v>
       </c>
       <c r="S5">
-        <v>0.04107983795590585</v>
+        <v>0.1307437786837919</v>
       </c>
       <c r="T5">
-        <v>0.04107983795590585</v>
+        <v>0.1307437786837919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J6">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q6">
         <v>86.63592168916931</v>
@@ -818,10 +818,10 @@
         <v>779.7232952025239</v>
       </c>
       <c r="S6">
-        <v>0.2216819376006376</v>
+        <v>0.3058158032316119</v>
       </c>
       <c r="T6">
-        <v>0.2216819376006376</v>
+        <v>0.3058158032316119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J7">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q7">
         <v>26.77565800073067</v>
@@ -880,10 +880,10 @@
         <v>240.980922006576</v>
       </c>
       <c r="S7">
-        <v>0.06851291739504894</v>
+        <v>0.09451529110438321</v>
       </c>
       <c r="T7">
-        <v>0.06851291739504896</v>
+        <v>0.09451529110438318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N8">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q8">
-        <v>12.85392316897333</v>
+        <v>29.65503186684667</v>
       </c>
       <c r="R8">
-        <v>115.68530852076</v>
+        <v>266.89528680162</v>
       </c>
       <c r="S8">
-        <v>0.03289031314390646</v>
+        <v>0.1046791817227531</v>
       </c>
       <c r="T8">
-        <v>0.03289031314390645</v>
+        <v>0.1046791817227531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>242.324234</v>
       </c>
       <c r="O9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q9">
         <v>69.36450423505333</v>
@@ -1004,10 +1004,10 @@
         <v>624.28053811548</v>
       </c>
       <c r="S9">
-        <v>0.1774882450573221</v>
+        <v>0.244849493891369</v>
       </c>
       <c r="T9">
-        <v>0.1774882450573221</v>
+        <v>0.244849493891369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>74.892616</v>
       </c>
       <c r="O10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q10">
         <v>21.43776168794667</v>
@@ -1066,10 +1066,10 @@
         <v>192.93985519152</v>
       </c>
       <c r="S10">
-        <v>0.05485443515976172</v>
+        <v>0.07567307165737557</v>
       </c>
       <c r="T10">
-        <v>0.05485443515976172</v>
+        <v>0.07567307165737555</v>
       </c>
     </row>
   </sheetData>
